--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J2">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.442132</v>
+        <v>1.979605666666667</v>
       </c>
       <c r="N2">
-        <v>16.326396</v>
+        <v>5.938817</v>
       </c>
       <c r="O2">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="P2">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="Q2">
-        <v>88.088701367068</v>
+        <v>0.5560461567615556</v>
       </c>
       <c r="R2">
-        <v>792.798312303612</v>
+        <v>5.004415410854</v>
       </c>
       <c r="S2">
-        <v>0.190872094063958</v>
+        <v>0.03282084185094691</v>
       </c>
       <c r="T2">
-        <v>0.190872094063958</v>
+        <v>0.03282084185094691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J3">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.37791666666666</v>
+        <v>16.37791666666667</v>
       </c>
       <c r="N3">
-        <v>49.13374999999999</v>
+        <v>49.13375000000001</v>
       </c>
       <c r="O3">
-        <v>0.5863845759091072</v>
+        <v>0.4852734597612733</v>
       </c>
       <c r="P3">
-        <v>0.5863845759091071</v>
+        <v>0.4852734597612734</v>
       </c>
       <c r="Q3">
-        <v>265.1000398859721</v>
+        <v>4.600349338055556</v>
       </c>
       <c r="R3">
-        <v>2385.900358973749</v>
+        <v>41.40314404250001</v>
       </c>
       <c r="S3">
-        <v>0.5744232684123916</v>
+        <v>0.271537418697017</v>
       </c>
       <c r="T3">
-        <v>0.5744232684123916</v>
+        <v>0.2715374186970171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.18643233333333</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>48.559297</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.9796015993801145</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="J4">
-        <v>0.9796015993801146</v>
+        <v>0.5595554696739399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.110284666666666</v>
+        <v>15.39234866666667</v>
       </c>
       <c r="N4">
-        <v>18.330854</v>
+        <v>46.177046</v>
       </c>
       <c r="O4">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="P4">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="Q4">
-        <v>98.90370929440421</v>
+        <v>4.323515770716889</v>
       </c>
       <c r="R4">
-        <v>890.1333836496379</v>
+        <v>38.91164193645201</v>
       </c>
       <c r="S4">
-        <v>0.2143062369037649</v>
+        <v>0.2551972091259759</v>
       </c>
       <c r="T4">
-        <v>0.214306236903765</v>
+        <v>0.2551972091259759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H5">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J5">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.442132</v>
+        <v>1.979605666666667</v>
       </c>
       <c r="N5">
-        <v>16.326396</v>
+        <v>5.938817</v>
       </c>
       <c r="O5">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="P5">
-        <v>0.1948466541752694</v>
+        <v>0.05865520690928468</v>
       </c>
       <c r="Q5">
-        <v>1.834285102952</v>
+        <v>0.4376822346087778</v>
       </c>
       <c r="R5">
-        <v>16.508565926568</v>
+        <v>3.939140111479</v>
       </c>
       <c r="S5">
-        <v>0.003974560111311407</v>
+        <v>0.02583436505833777</v>
       </c>
       <c r="T5">
-        <v>0.003974560111311407</v>
+        <v>0.02583436505833777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H6">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J6">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.37791666666666</v>
+        <v>16.37791666666667</v>
       </c>
       <c r="N6">
-        <v>49.13374999999999</v>
+        <v>49.13375000000001</v>
       </c>
       <c r="O6">
-        <v>0.5863845759091072</v>
+        <v>0.4852734597612733</v>
       </c>
       <c r="P6">
-        <v>0.5863845759091071</v>
+        <v>0.4852734597612734</v>
       </c>
       <c r="Q6">
-        <v>5.520220486944443</v>
+        <v>3.621086404027778</v>
       </c>
       <c r="R6">
-        <v>49.68198438249999</v>
+        <v>32.58977763625001</v>
       </c>
       <c r="S6">
-        <v>0.01196130749671555</v>
+        <v>0.2137360410642563</v>
       </c>
       <c r="T6">
-        <v>0.01196130749671555</v>
+        <v>0.2137360410642563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3370526666666667</v>
+        <v>0.2210956666666667</v>
       </c>
       <c r="H7">
-        <v>1.011158</v>
+        <v>0.663287</v>
       </c>
       <c r="I7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="J7">
-        <v>0.02039840061988537</v>
+        <v>0.4404445303260602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.110284666666666</v>
+        <v>15.39234866666667</v>
       </c>
       <c r="N7">
-        <v>18.330854</v>
+        <v>46.177046</v>
       </c>
       <c r="O7">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="P7">
-        <v>0.2187687699156234</v>
+        <v>0.4560713333294419</v>
       </c>
       <c r="Q7">
-        <v>2.059487740992444</v>
+        <v>3.403181590022445</v>
       </c>
       <c r="R7">
-        <v>18.535389668932</v>
+        <v>30.628634310202</v>
       </c>
       <c r="S7">
-        <v>0.004462533011858412</v>
+        <v>0.2008741242034661</v>
       </c>
       <c r="T7">
-        <v>0.004462533011858412</v>
+        <v>0.2008741242034661</v>
       </c>
     </row>
   </sheetData>
